--- a/Test_Case_Design/Login_Testing_Test_Cases.xlsx
+++ b/Test_Case_Design/Login_Testing_Test_Cases.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wasana\University\Projects\QA-Portfolio\Test_Case_Design\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CA1641-13E8-45D8-89C6-811F084471F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +24,307 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Scenario ID</t>
+  </si>
+  <si>
+    <t>Test Case Title</t>
+  </si>
+  <si>
+    <t>Preconditions</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>TC-01</t>
+  </si>
+  <si>
+    <t>TS-01</t>
+  </si>
+  <si>
+    <t>Login with valid credentials</t>
+  </si>
+  <si>
+    <t>User is registered and login page is accessible</t>
+  </si>
+  <si>
+    <t>Email: wasu@gmail.com
+Password:wasana123</t>
+  </si>
+  <si>
+    <t>User should log in successfully and be redirected to the home.</t>
+  </si>
+  <si>
+    <t>User logged in successfully and be redirected to the home.</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>TC-02</t>
+  </si>
+  <si>
+    <t>TS-05</t>
+  </si>
+  <si>
+    <t>Login with invalid email</t>
+  </si>
+  <si>
+    <t>User is registered</t>
+  </si>
+  <si>
+    <t>1. Open login page
+2. Enter invalid email
+3. Enter valid password
+4. Click Login</t>
+  </si>
+  <si>
+    <t>1. Open Seagrass Sri Lanka login page
+2. Enter valid email/username
+3. Enter valid password
+4. Click Login button</t>
+  </si>
+  <si>
+    <t>Email: wasa@gmail.com
+Password:wasana124</t>
+  </si>
+  <si>
+    <t>Error message should be displayed</t>
+  </si>
+  <si>
+    <t>Error message displayed</t>
+  </si>
+  <si>
+    <t>TC-03</t>
+  </si>
+  <si>
+    <t>TS-06</t>
+  </si>
+  <si>
+    <t>Login with invalid Password</t>
+  </si>
+  <si>
+    <t>1. Open login page
+2. Enter valid email
+3. Enter invalid password
+4. Click Login</t>
+  </si>
+  <si>
+    <t>Email: wasa@gmail.com
+Password:wasana</t>
+  </si>
+  <si>
+    <t>TC-04</t>
+  </si>
+  <si>
+    <t>TC-05</t>
+  </si>
+  <si>
+    <t>TC-06</t>
+  </si>
+  <si>
+    <t>TC-07</t>
+  </si>
+  <si>
+    <t>TC-08</t>
+  </si>
+  <si>
+    <t>TC-09</t>
+  </si>
+  <si>
+    <t>TC-10</t>
+  </si>
+  <si>
+    <t>TS-07</t>
+  </si>
+  <si>
+    <t>Login with both fields invalid</t>
+  </si>
+  <si>
+    <t>1. Open login page
+2. Enter invalid email
+3. Enter invalid password
+4. Click Login</t>
+  </si>
+  <si>
+    <t>Email: wasu@gmail.com
+Password:wasana</t>
+  </si>
+  <si>
+    <t>Login with empty email</t>
+  </si>
+  <si>
+    <t>TS-08</t>
+  </si>
+  <si>
+    <t>Login page is open</t>
+  </si>
+  <si>
+    <t>1. Leave email empty
+2. Enter password
+3. Click Login</t>
+  </si>
+  <si>
+    <t>Validation message for email should appear</t>
+  </si>
+  <si>
+    <t>Validation message for email appeared</t>
+  </si>
+  <si>
+    <t>Email:
+Password:wasana123</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Login with empty password field</t>
+  </si>
+  <si>
+    <t>TS-09</t>
+  </si>
+  <si>
+    <t>1. Enter Email
+2. Leave password empty
+3. Click Login</t>
+  </si>
+  <si>
+    <t>Email: wasu@gmail.com
+Password:</t>
+  </si>
+  <si>
+    <t>Validation message for password should appear</t>
+  </si>
+  <si>
+    <t>Validation message for password appeared</t>
+  </si>
+  <si>
+    <t>Login with both fields empty</t>
+  </si>
+  <si>
+    <t>TS-10</t>
+  </si>
+  <si>
+    <t>1. Leave email Email
+2. Leave password empty
+3. Click Login</t>
+  </si>
+  <si>
+    <t>Email: 
+Password:</t>
+  </si>
+  <si>
+    <t>Validation message appeared</t>
+  </si>
+  <si>
+    <t>TS-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Password field masking</t>
+  </si>
+  <si>
+    <t>1. Enter Password</t>
+  </si>
+  <si>
+    <t>Password:wasana123</t>
+  </si>
+  <si>
+    <t>Password should be masked</t>
+  </si>
+  <si>
+    <t>Password masked</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>TS-12</t>
+  </si>
+  <si>
+    <t>Show/Hide password functionality</t>
+  </si>
+  <si>
+    <t>1. Enter password
+2. Click show/hide icon</t>
+  </si>
+  <si>
+    <t>Password visibility should toggle</t>
+  </si>
+  <si>
+    <t>Password visibility not toggled</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>TS-13</t>
+  </si>
+  <si>
+    <t>Mandatory field indication</t>
+  </si>
+  <si>
+    <t>1. Without Email, Password Click Login</t>
+  </si>
+  <si>
+    <t>Mandatory field should be appeared</t>
+  </si>
+  <si>
+    <t>Mandatory field appeared</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -37,7 +340,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +348,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +670,392 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" customWidth="1"/>
+    <col min="5" max="5" width="36.88671875" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" customWidth="1"/>
+    <col min="7" max="7" width="64.88671875" customWidth="1"/>
+    <col min="8" max="8" width="47.88671875" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test_Case_Design/Login_Testing_Test_Cases.xlsx
+++ b/Test_Case_Design/Login_Testing_Test_Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wasana\University\Projects\QA-Portfolio\Test_Case_Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CA1641-13E8-45D8-89C6-811F084471F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD62147B-9480-4F1C-8715-34A4430E72C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="164">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -297,13 +297,314 @@
   </si>
   <si>
     <t>Mandatory field appeared</t>
+  </si>
+  <si>
+    <t>TC-11</t>
+  </si>
+  <si>
+    <t>TS-14</t>
+  </si>
+  <si>
+    <t>Error message clarity</t>
+  </si>
+  <si>
+    <t>Verify that error messages are user-friendly, readable, and meaningful.</t>
+  </si>
+  <si>
+    <t>The error messages are user-friendly, readable, and meaningful.</t>
+  </si>
+  <si>
+    <t>1. Enter Email
+2. Enter Wrong Passsword
+3. Click Login</t>
+  </si>
+  <si>
+    <t>TC-12</t>
+  </si>
+  <si>
+    <t>Login button state</t>
+  </si>
+  <si>
+    <t>Verify that the Login button behavior is correct (enabled/disabled) based on input fields.</t>
+  </si>
+  <si>
+    <t>TS-15</t>
+  </si>
+  <si>
+    <t>Login button behavior is incorrect (enabled/disabled) based on input fields.</t>
+  </si>
+  <si>
+    <t>Login with minimum allowed password length</t>
+  </si>
+  <si>
+    <t>Login with maximum allowed password length</t>
+  </si>
+  <si>
+    <t>Login with special characters in password</t>
+  </si>
+  <si>
+    <t>Login with leading/trailing spaces</t>
+  </si>
+  <si>
+    <t>Multiple failed login attempts</t>
+  </si>
+  <si>
+    <t>Direct access without login</t>
+  </si>
+  <si>
+    <t>Logout functionality</t>
+  </si>
+  <si>
+    <t>Session expiration</t>
+  </si>
+  <si>
+    <t>Login on different browsers</t>
+  </si>
+  <si>
+    <t>Login on mobile devices</t>
+  </si>
+  <si>
+    <t>TC-13</t>
+  </si>
+  <si>
+    <t>TC-14</t>
+  </si>
+  <si>
+    <t>TC-15</t>
+  </si>
+  <si>
+    <t>TC-16</t>
+  </si>
+  <si>
+    <t>TC-17</t>
+  </si>
+  <si>
+    <t>TC-18</t>
+  </si>
+  <si>
+    <t>TC-19</t>
+  </si>
+  <si>
+    <t>TC-20</t>
+  </si>
+  <si>
+    <t>TC-21</t>
+  </si>
+  <si>
+    <t>TC-22</t>
+  </si>
+  <si>
+    <t>TS-16</t>
+  </si>
+  <si>
+    <t>TS-17</t>
+  </si>
+  <si>
+    <t>TS-18</t>
+  </si>
+  <si>
+    <t>TS-19</t>
+  </si>
+  <si>
+    <t>TS-20</t>
+  </si>
+  <si>
+    <t>TS-21</t>
+  </si>
+  <si>
+    <t>TS-22</t>
+  </si>
+  <si>
+    <t>TS-23</t>
+  </si>
+  <si>
+    <t>TS-24</t>
+  </si>
+  <si>
+    <t>TS-25</t>
+  </si>
+  <si>
+    <t>User is not logged in
+Application URL is accessible
+User knows a protected URL</t>
+  </si>
+  <si>
+    <t>Protected URL:</t>
+  </si>
+  <si>
+    <t>User should be redirected to the Login page
+Access to protected page should be denied</t>
+  </si>
+  <si>
+    <t>User is redirected to the Login page</t>
+  </si>
+  <si>
+    <t>User is logged in successfully
+User is on the Home page</t>
+  </si>
+  <si>
+    <t>1. Click on the Logout button
+2. Observe the application behavior
+3. Press browser back button</t>
+  </si>
+  <si>
+    <t>User should be logged out successfully
+User should be redirected to the Home page
+Back button should not allow access to previous one</t>
+  </si>
+  <si>
+    <t>User logged out and redirected to Login page</t>
+  </si>
+  <si>
+    <t>1. Open a web browser
+2. Enter the protected page URL directly in the address bar
+3. Press Enter</t>
+  </si>
+  <si>
+    <t>User is redirected to Home page after session expiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is logged in
+Session timeout is configured </t>
+  </si>
+  <si>
+    <t>1. Login to the application
+2. Stay idle without any activity until session expires
+3. Try to access any protected page</t>
+  </si>
+  <si>
+    <t>Session should expire automatically
+User should be redirected to Login page
+Session expired message should be displayed</t>
+  </si>
+  <si>
+    <t>User is registered
+Browsers are installed</t>
+  </si>
+  <si>
+    <t>1. Open Chrome browser
+2. Login with valid credentials
+3. Repeat the same steps in Firefox and Edge</t>
+  </si>
+  <si>
+    <t>User should be able to login successfully on all browsers
+UI and functionality should be consistent</t>
+  </si>
+  <si>
+    <t>Login successful on all tested browsers</t>
+  </si>
+  <si>
+    <t>Browser types: Chrome, Firefox, Edge
+Email: wasu@gmail.com
+Password:wasana</t>
+  </si>
+  <si>
+    <t>User is registered
+Mobile device or emulator is available
+Internet connection is active</t>
+  </si>
+  <si>
+    <t>Login successful and UI displayed correctly on mobile</t>
+  </si>
+  <si>
+    <t>1. Open the application on a mobile browser
+2. Enter valid login credentials
+3. Tap the Login button</t>
+  </si>
+  <si>
+    <t>Device: Android / iOS
+Valid username and password</t>
+  </si>
+  <si>
+    <t>User should login successfully
+UI should be responsive and user-friendly</t>
+  </si>
+  <si>
+    <t>User is registered
+Minimum password length is defined 
+Login page is accessible</t>
+  </si>
+  <si>
+    <t>1. Open the login page
+2. Enter a valid email
+3. Enter a password with minimum allowed    length
+4. Click the Login button</t>
+  </si>
+  <si>
+    <t>User should login successfully
+User should be redirected to the Home Page</t>
+  </si>
+  <si>
+    <t>User logged in successfully with minimum password length</t>
+  </si>
+  <si>
+    <t>User is registered
+Maximum password length is defined (e.g., 20 characters)
+Login page is accessible</t>
+  </si>
+  <si>
+    <t>1. Open the login page
+2. Enter a valid email
+3 Enter a password with maximum allowed length
+4. Click the Login button</t>
+  </si>
+  <si>
+    <t>User should login successfully
+No validation error should be displayed</t>
+  </si>
+  <si>
+    <t>User logged in successfully with maximum password length</t>
+  </si>
+  <si>
+    <t>User logged in successfully using special characters in password</t>
+  </si>
+  <si>
+    <t>User is registered
+Password contains allowed special characters
+Login page is accessible</t>
+  </si>
+  <si>
+    <t>1. Open the login page
+2. Enter a valid email
+3. Enter a password containing special characters
+4. Click the Login button</t>
+  </si>
+  <si>
+    <t>User should login successfully
+System should accept special characters</t>
+  </si>
+  <si>
+    <t>User is registered
+Login page is accessible</t>
+  </si>
+  <si>
+    <t>1. Open the login page
+2. Enter valid email with leading/trailing spaces
+3. Enter valid password with leading/trailing spaces
+4. Click the Login button</t>
+  </si>
+  <si>
+    <t>System should trim spaces automatically
+User should login successfully OR show proper validation message</t>
+  </si>
+  <si>
+    <t>User account exists
+Maximum failed attempts limit is configured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email: 
+Password: </t>
+  </si>
+  <si>
+    <t>System should display an error message
+Account should be temporarily locked OR CAPTCHA should appear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +628,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0D0D0D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -367,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -390,6 +698,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,22 +991,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" customWidth="1"/>
     <col min="4" max="4" width="37.44140625" customWidth="1"/>
     <col min="5" max="5" width="36.88671875" customWidth="1"/>
     <col min="6" max="6" width="41.33203125" customWidth="1"/>
-    <col min="7" max="7" width="64.88671875" customWidth="1"/>
-    <col min="8" max="8" width="47.88671875" customWidth="1"/>
+    <col min="7" max="7" width="72.5546875" customWidth="1"/>
+    <col min="8" max="8" width="71.5546875" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1053,6 +1373,394 @@
       </c>
       <c r="K11" s="5"/>
     </row>
+    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test_Case_Design/Login_Testing_Test_Cases.xlsx
+++ b/Test_Case_Design/Login_Testing_Test_Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wasana\University\Projects\QA-Portfolio\Test_Case_Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD62147B-9480-4F1C-8715-34A4430E72C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8D3C4C-67AF-4661-8000-0130C4797ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
